--- a/covid_website_analysis/preprocessed_df.xlsx
+++ b/covid_website_analysis/preprocessed_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,15 +466,20 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>total_population</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>country_name</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>country_iso_code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>continent_name</t>
         </is>
@@ -499,17 +504,20 @@
       <c r="F2" t="n">
         <v>104032</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>331002651</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>미국</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -517,34 +525,37 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30027850</v>
+        <v>30028709</v>
       </c>
       <c r="B3" t="n">
         <v>390691</v>
       </c>
       <c r="C3" t="n">
-        <v>28987311</v>
+        <v>28994855</v>
       </c>
       <c r="D3" t="n">
         <v>0.013</v>
       </c>
       <c r="E3" t="n">
-        <v>0.965</v>
+        <v>0.966</v>
       </c>
       <c r="F3" t="n">
-        <v>21759</v>
-      </c>
-      <c r="G3" t="inlineStr">
+        <v>21760</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1380004385</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>인도</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -569,17 +580,20 @@
       <c r="F4" t="n">
         <v>84949</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>212559417</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>브라질</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
@@ -604,17 +618,20 @@
       <c r="F5" t="n">
         <v>88244</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>65273511</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>프랑스</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>FR</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -639,17 +656,20 @@
       <c r="F6" t="n">
         <v>63811</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>84339067</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>터키</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>TR</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -674,17 +694,20 @@
       <c r="F7" t="n">
         <v>63811</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="n">
+        <v>84339067</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>터키</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>TR</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -692,34 +715,37 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5350919</v>
+        <v>5368513</v>
       </c>
       <c r="B8" t="n">
-        <v>130347</v>
+        <v>130895</v>
       </c>
       <c r="C8" t="n">
-        <v>4889450</v>
+        <v>4902110</v>
       </c>
       <c r="D8" t="n">
         <v>0.024</v>
       </c>
       <c r="E8" t="n">
-        <v>0.914</v>
+        <v>0.9129999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>36667</v>
-      </c>
-      <c r="G8" t="inlineStr">
+        <v>36787</v>
+      </c>
+      <c r="G8" t="n">
+        <v>145934462</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>러시아</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>RU</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -727,34 +753,37 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5350919</v>
+        <v>5368513</v>
       </c>
       <c r="B9" t="n">
-        <v>130347</v>
+        <v>130895</v>
       </c>
       <c r="C9" t="n">
-        <v>4889450</v>
+        <v>4902110</v>
       </c>
       <c r="D9" t="n">
         <v>0.024</v>
       </c>
       <c r="E9" t="n">
-        <v>0.914</v>
+        <v>0.9129999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>36667</v>
-      </c>
-      <c r="G9" t="inlineStr">
+        <v>36787</v>
+      </c>
+      <c r="G9" t="n">
+        <v>145934462</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>러시아</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>RU</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -779,17 +808,20 @@
       <c r="F10" t="n">
         <v>68526</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" t="n">
+        <v>67886011</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>영국</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -814,17 +846,20 @@
       <c r="F11" t="n">
         <v>95115</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" t="n">
+        <v>45195774</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>아르헨티나</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
@@ -849,17 +884,20 @@
       <c r="F12" t="n">
         <v>70363</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" t="n">
+        <v>60461826</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>이탈리아</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>IT</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -884,17 +922,20 @@
       <c r="F13" t="n">
         <v>78553</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" t="n">
+        <v>50882891</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>콜롬비아</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
@@ -919,17 +960,20 @@
       <c r="F14" t="n">
         <v>80605</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" t="n">
+        <v>46754778</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>스페인</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>ES</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -943,28 +987,31 @@
         <v>91082</v>
       </c>
       <c r="C15" t="n">
-        <v>3608100</v>
+        <v>3611500</v>
       </c>
       <c r="D15" t="n">
         <v>0.024</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9670000000000001</v>
+        <v>0.968</v>
       </c>
       <c r="F15" t="n">
         <v>44535</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" t="n">
+        <v>83783942</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>독일</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -972,34 +1019,37 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3117336</v>
+        <v>3128395</v>
       </c>
       <c r="B16" t="n">
-        <v>83217</v>
+        <v>83329</v>
       </c>
       <c r="C16" t="n">
-        <v>2771705</v>
+        <v>2784014</v>
       </c>
       <c r="D16" t="n">
         <v>0.027</v>
       </c>
       <c r="E16" t="n">
-        <v>0.889</v>
+        <v>0.89</v>
       </c>
       <c r="F16" t="n">
-        <v>37114</v>
-      </c>
-      <c r="G16" t="inlineStr">
+        <v>37246</v>
+      </c>
+      <c r="G16" t="n">
+        <v>83992949</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>이란</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>IR</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -1007,13 +1057,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2879030</v>
+        <v>2879192</v>
       </c>
       <c r="B17" t="n">
-        <v>74858</v>
+        <v>74893</v>
       </c>
       <c r="C17" t="n">
-        <v>2650773</v>
+        <v>2650839</v>
       </c>
       <c r="D17" t="n">
         <v>0.026</v>
@@ -1022,19 +1072,22 @@
         <v>0.9209999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>76071</v>
-      </c>
-      <c r="G17" t="inlineStr">
+        <v>76075</v>
+      </c>
+      <c r="G17" t="n">
+        <v>37846611</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>폴란드</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>PL</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -1059,17 +1112,20 @@
       <c r="F18" t="n">
         <v>19256</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" t="n">
+        <v>128932753</v>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>멕시코</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>MX</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -1077,34 +1133,37 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2230142</v>
+        <v>2230977</v>
       </c>
       <c r="B19" t="n">
-        <v>52053</v>
+        <v>52123</v>
       </c>
       <c r="C19" t="n">
-        <v>2152969</v>
+        <v>2155261</v>
       </c>
       <c r="D19" t="n">
         <v>0.023</v>
       </c>
       <c r="E19" t="n">
-        <v>0.965</v>
+        <v>0.966</v>
       </c>
       <c r="F19" t="n">
-        <v>50994</v>
-      </c>
-      <c r="G19" t="inlineStr">
+        <v>51013</v>
+      </c>
+      <c r="G19" t="n">
+        <v>43733762</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>우크라이나</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>UA</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -1112,34 +1171,37 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2018113</v>
+        <v>2033421</v>
       </c>
       <c r="B20" t="n">
-        <v>55291</v>
+        <v>55594</v>
       </c>
       <c r="C20" t="n">
-        <v>1810136</v>
+        <v>1817303</v>
       </c>
       <c r="D20" t="n">
         <v>0.027</v>
       </c>
       <c r="E20" t="n">
-        <v>0.897</v>
+        <v>0.894</v>
       </c>
       <c r="F20" t="n">
-        <v>7378</v>
-      </c>
-      <c r="G20" t="inlineStr">
+        <v>7434</v>
+      </c>
+      <c r="G20" t="n">
+        <v>273523615</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>인도네시아</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -1164,17 +1226,20 @@
       <c r="F21" t="n">
         <v>31084</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" t="n">
+        <v>59308690</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>남아프리카 공화국</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>ZA</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -1182,13 +1247,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1666192</v>
+        <v>1666325</v>
       </c>
       <c r="B22" t="n">
-        <v>30283</v>
+        <v>30289</v>
       </c>
       <c r="C22" t="n">
-        <v>1633482</v>
+        <v>1633550</v>
       </c>
       <c r="D22" t="n">
         <v>0.018</v>
@@ -1197,19 +1262,22 @@
         <v>0.98</v>
       </c>
       <c r="F22" t="n">
-        <v>155588</v>
-      </c>
-      <c r="G22" t="inlineStr">
+        <v>155601</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10708981</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>체코</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>CZ</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -1234,17 +1302,20 @@
       <c r="F23" t="n">
         <v>79810</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" t="n">
+        <v>19116201</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>칠레</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
@@ -1269,17 +1340,20 @@
       <c r="F24" t="n">
         <v>37364</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" t="n">
+        <v>37742154</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>캐나다</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -1287,34 +1361,37 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1367894</v>
+        <v>1372232</v>
       </c>
       <c r="B25" t="n">
-        <v>23809</v>
+        <v>23928</v>
       </c>
       <c r="C25" t="n">
-        <v>1291389</v>
+        <v>1298442</v>
       </c>
       <c r="D25" t="n">
         <v>0.017</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9440000000000001</v>
+        <v>0.946</v>
       </c>
       <c r="F25" t="n">
-        <v>12483</v>
-      </c>
-      <c r="G25" t="inlineStr">
+        <v>12523</v>
+      </c>
+      <c r="G25" t="n">
+        <v>109581078</v>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>필리핀</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -1322,34 +1399,37 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1298703</v>
+        <v>1305000</v>
       </c>
       <c r="B26" t="n">
-        <v>16935</v>
+        <v>16968</v>
       </c>
       <c r="C26" t="n">
-        <v>1209918</v>
+        <v>1213952</v>
       </c>
       <c r="D26" t="n">
         <v>0.013</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="F26" t="n">
-        <v>32288</v>
-      </c>
-      <c r="G26" t="inlineStr">
+        <v>32445</v>
+      </c>
+      <c r="G26" t="n">
+        <v>40222493</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>이라크</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>IQ</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -1357,10 +1437,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1080323</v>
+        <v>1080389</v>
       </c>
       <c r="B27" t="n">
-        <v>32465</v>
+        <v>32626</v>
       </c>
       <c r="C27" t="n">
         <v>1045303</v>
@@ -1372,19 +1452,22 @@
         <v>0.968</v>
       </c>
       <c r="F27" t="n">
-        <v>56157</v>
-      </c>
-      <c r="G27" t="inlineStr">
+        <v>56160</v>
+      </c>
+      <c r="G27" t="n">
+        <v>19237691</v>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>루마니아</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>RO</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -1392,34 +1475,37 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1079640</v>
+        <v>1080035</v>
       </c>
       <c r="B28" t="n">
-        <v>25141</v>
+        <v>25144</v>
       </c>
       <c r="C28" t="n">
-        <v>1016574</v>
+        <v>1021987</v>
       </c>
       <c r="D28" t="n">
         <v>0.023</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.946</v>
       </c>
       <c r="F28" t="n">
-        <v>93156</v>
-      </c>
-      <c r="G28" t="inlineStr">
+        <v>93190</v>
+      </c>
+      <c r="G28" t="n">
+        <v>11589623</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>벨기에</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>BE</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -1427,13 +1513,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>949838</v>
+        <v>950768</v>
       </c>
       <c r="B29" t="n">
-        <v>22034</v>
+        <v>22073</v>
       </c>
       <c r="C29" t="n">
-        <v>894352</v>
+        <v>895690</v>
       </c>
       <c r="D29" t="n">
         <v>0.023</v>
@@ -1442,19 +1528,22 @@
         <v>0.9420000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>4300</v>
-      </c>
-      <c r="G29" t="inlineStr">
+        <v>4304</v>
+      </c>
+      <c r="G29" t="n">
+        <v>220892340</v>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>파키스탄</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>PK</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -1462,83 +1551,89 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>866826</v>
+        <v>866877</v>
       </c>
       <c r="B30" t="n">
-        <v>17074</v>
+        <v>13787</v>
       </c>
       <c r="C30" t="n">
-        <v>821374</v>
+        <v>791553</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="E30" t="n">
-        <v>0.948</v>
+        <v>0.9129999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>85010</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>포르투갈</t>
-        </is>
+        <v>5264</v>
+      </c>
+      <c r="G30" t="n">
+        <v>164689383</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>방글라데시</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Asia</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>861150</v>
+        <v>866826</v>
       </c>
       <c r="B31" t="n">
-        <v>13702</v>
+        <v>17074</v>
       </c>
       <c r="C31" t="n">
-        <v>788385</v>
+        <v>821374</v>
       </c>
       <c r="D31" t="n">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9159999999999999</v>
+        <v>0.948</v>
       </c>
       <c r="F31" t="n">
-        <v>5229</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>방글라데시</t>
-        </is>
+        <v>85010</v>
+      </c>
+      <c r="G31" t="n">
+        <v>10196709</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Europe</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>840079</v>
+        <v>840166</v>
       </c>
       <c r="B32" t="n">
         <v>6428</v>
       </c>
       <c r="C32" t="n">
-        <v>833174</v>
+        <v>833184</v>
       </c>
       <c r="D32" t="n">
         <v>0.008</v>
@@ -1547,19 +1642,22 @@
         <v>0.992</v>
       </c>
       <c r="F32" t="n">
-        <v>97057</v>
-      </c>
-      <c r="G32" t="inlineStr">
+        <v>97067</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8655535</v>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>이스라엘</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -1567,34 +1665,37 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>807684</v>
+        <v>807775</v>
       </c>
       <c r="B33" t="n">
-        <v>29963</v>
+        <v>29971</v>
       </c>
       <c r="C33" t="n">
-        <v>735937</v>
+        <v>736387</v>
       </c>
       <c r="D33" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9109999999999999</v>
+        <v>0.912</v>
       </c>
       <c r="F33" t="n">
-        <v>83608</v>
-      </c>
-      <c r="G33" t="inlineStr">
+        <v>83618</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9660351</v>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>헝가리</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>HU</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -1619,17 +1720,20 @@
       <c r="F34" t="n">
         <v>6214</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G34" t="n">
+        <v>126476461</v>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>일본</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>JP</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -1654,17 +1758,20 @@
       <c r="F35" t="n">
         <v>73262</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G35" t="n">
+        <v>10203134</v>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>요르단</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>JO</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -1672,34 +1779,37 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>715913</v>
+        <v>716016</v>
       </c>
       <c r="B36" t="n">
-        <v>7010</v>
+        <v>7013</v>
       </c>
       <c r="C36" t="n">
-        <v>706203</v>
+        <v>706407</v>
       </c>
       <c r="D36" t="n">
         <v>0.01</v>
       </c>
       <c r="E36" t="n">
-        <v>0.986</v>
+        <v>0.987</v>
       </c>
       <c r="F36" t="n">
-        <v>81937</v>
-      </c>
-      <c r="G36" t="inlineStr">
+        <v>81949</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8737371</v>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>세르비아</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>RS</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -1707,34 +1817,37 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>705762</v>
+        <v>711006</v>
       </c>
       <c r="B37" t="n">
-        <v>4554</v>
+        <v>4637</v>
       </c>
       <c r="C37" t="n">
-        <v>639181</v>
+        <v>645553</v>
       </c>
       <c r="D37" t="n">
-        <v>0.006</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9059999999999999</v>
+        <v>0.9079999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>21806</v>
-      </c>
-      <c r="G37" t="inlineStr">
+        <v>21968</v>
+      </c>
+      <c r="G37" t="n">
+        <v>32365999</v>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>말레이시아</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>MY</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -1742,13 +1855,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>702124</v>
+        <v>702278</v>
       </c>
       <c r="B38" t="n">
-        <v>10875</v>
+        <v>10876</v>
       </c>
       <c r="C38" t="n">
-        <v>676494</v>
+        <v>676492</v>
       </c>
       <c r="D38" t="n">
         <v>0.015</v>
@@ -1757,19 +1870,22 @@
         <v>0.963</v>
       </c>
       <c r="F38" t="n">
-        <v>81127</v>
-      </c>
-      <c r="G38" t="inlineStr">
+        <v>81145</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8654622</v>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>스위스</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>CH</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -1777,13 +1893,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>649728</v>
+        <v>649845</v>
       </c>
       <c r="B39" t="n">
-        <v>10684</v>
+        <v>10686</v>
       </c>
       <c r="C39" t="n">
-        <v>636523</v>
+        <v>636740</v>
       </c>
       <c r="D39" t="n">
         <v>0.016</v>
@@ -1792,19 +1908,22 @@
         <v>0.98</v>
       </c>
       <c r="F39" t="n">
-        <v>72141</v>
-      </c>
-      <c r="G39" t="inlineStr">
+        <v>72154</v>
+      </c>
+      <c r="G39" t="n">
+        <v>9006398</v>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>오스트리아</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>AT</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -1812,34 +1931,37 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>626343</v>
+        <v>627854</v>
       </c>
       <c r="B40" t="n">
-        <v>8813</v>
+        <v>8894</v>
       </c>
       <c r="C40" t="n">
-        <v>564882</v>
+        <v>568440</v>
       </c>
       <c r="D40" t="n">
         <v>0.014</v>
       </c>
       <c r="E40" t="n">
-        <v>0.902</v>
+        <v>0.905</v>
       </c>
       <c r="F40" t="n">
-        <v>21497</v>
-      </c>
-      <c r="G40" t="inlineStr">
+        <v>21548</v>
+      </c>
+      <c r="G40" t="n">
+        <v>29136808</v>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>네팔</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>NP</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -1847,13 +1969,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>616160</v>
+        <v>618148</v>
       </c>
       <c r="B41" t="n">
-        <v>1767</v>
+        <v>1773</v>
       </c>
       <c r="C41" t="n">
-        <v>595086</v>
+        <v>597008</v>
       </c>
       <c r="D41" t="n">
         <v>0.003</v>
@@ -1862,15 +1984,18 @@
         <v>0.966</v>
       </c>
       <c r="F41" t="n">
-        <v>62299</v>
-      </c>
-      <c r="G41" t="inlineStr">
+        <v>62500</v>
+      </c>
+      <c r="G41" t="n">
+        <v>9890402</v>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>아랍에미레이트</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -1895,17 +2020,20 @@
       <c r="F42" t="n">
         <v>79658</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G42" t="n">
+        <v>6825445</v>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>레바논</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>LB</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -1930,17 +2058,20 @@
       <c r="F43" t="n">
         <v>14282</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G43" t="n">
+        <v>36910560</v>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>모로코</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -1948,34 +2079,37 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>476882</v>
+        <v>478135</v>
       </c>
       <c r="B44" t="n">
-        <v>7691</v>
+        <v>7716</v>
       </c>
       <c r="C44" t="n">
-        <v>458048</v>
+        <v>459091</v>
       </c>
       <c r="D44" t="n">
         <v>0.016</v>
       </c>
       <c r="E44" t="n">
-        <v>0.961</v>
+        <v>0.96</v>
       </c>
       <c r="F44" t="n">
-        <v>13698</v>
-      </c>
-      <c r="G44" t="inlineStr">
+        <v>13734</v>
+      </c>
+      <c r="G44" t="n">
+        <v>34813871</v>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>사우디아라비아</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -2000,17 +2134,20 @@
       <c r="F45" t="n">
         <v>25346</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G45" t="n">
+        <v>17643054</v>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>에콰도르</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>EC</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
@@ -2035,17 +2172,20 @@
       <c r="F46" t="n">
         <v>36364</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" t="n">
+        <v>11673021</v>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>볼리비아</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>BO</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
@@ -2070,17 +2210,20 @@
       <c r="F47" t="n">
         <v>60624</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G47" t="n">
+        <v>6948445</v>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>불가리아</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>BG</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -2105,17 +2248,20 @@
       <c r="F48" t="n">
         <v>40194</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" t="n">
+        <v>10423054</v>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>그리스</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>GR</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -2123,13 +2269,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>411551</v>
+        <v>412353</v>
       </c>
       <c r="B49" t="n">
-        <v>3063</v>
+        <v>3072</v>
       </c>
       <c r="C49" t="n">
-        <v>404240</v>
+        <v>405045</v>
       </c>
       <c r="D49" t="n">
         <v>0.006999999999999999</v>
@@ -2138,19 +2284,22 @@
         <v>0.982</v>
       </c>
       <c r="F49" t="n">
-        <v>43553</v>
-      </c>
-      <c r="G49" t="inlineStr">
+        <v>43638</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9449323</v>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>벨라루스</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>BY</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -2158,13 +2307,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>410523</v>
+        <v>411771</v>
       </c>
       <c r="B50" t="n">
-        <v>4249</v>
+        <v>4261</v>
       </c>
       <c r="C50" t="n">
-        <v>386127</v>
+        <v>387295</v>
       </c>
       <c r="D50" t="n">
         <v>0.01</v>
@@ -2173,19 +2322,22 @@
         <v>0.9409999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>21863</v>
-      </c>
-      <c r="G50" t="inlineStr">
+        <v>21930</v>
+      </c>
+      <c r="G50" t="n">
+        <v>18776707</v>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>카자흐스탄</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>KZ</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -2193,13 +2345,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>410523</v>
+        <v>411771</v>
       </c>
       <c r="B51" t="n">
-        <v>4249</v>
+        <v>4261</v>
       </c>
       <c r="C51" t="n">
-        <v>386127</v>
+        <v>387295</v>
       </c>
       <c r="D51" t="n">
         <v>0.01</v>
@@ -2208,19 +2360,22 @@
         <v>0.9409999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>21863</v>
-      </c>
-      <c r="G51" t="inlineStr">
+        <v>21930</v>
+      </c>
+      <c r="G51" t="n">
+        <v>18776707</v>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>카자흐스탄</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>KZ</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -2245,17 +2400,20 @@
       <c r="F52" t="n">
         <v>57408</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G52" t="n">
+        <v>7132538</v>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>파라과이</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>PY</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
@@ -2280,17 +2438,20 @@
       <c r="F53" t="n">
         <v>91650</v>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G53" t="n">
+        <v>4314767</v>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>파나마</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -2298,13 +2459,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>391385</v>
+        <v>391420</v>
       </c>
       <c r="B54" t="n">
         <v>12502</v>
       </c>
       <c r="C54" t="n">
-        <v>378044</v>
+        <v>378191</v>
       </c>
       <c r="D54" t="n">
         <v>0.032</v>
@@ -2313,19 +2474,22 @@
         <v>0.966</v>
       </c>
       <c r="F54" t="n">
-        <v>71687</v>
-      </c>
-      <c r="G54" t="inlineStr">
+        <v>71693</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5459642</v>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>슬로바키아</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>SK</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -2350,17 +2514,20 @@
       <c r="F55" t="n">
         <v>32810</v>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G55" t="n">
+        <v>11818619</v>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>튀니지</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>TN</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -2368,34 +2535,37 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>360055</v>
+        <v>360828</v>
       </c>
       <c r="B56" t="n">
-        <v>5199</v>
+        <v>5211</v>
       </c>
       <c r="C56" t="n">
-        <v>346217</v>
+        <v>346792</v>
       </c>
       <c r="D56" t="n">
         <v>0.014</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9620000000000001</v>
+        <v>0.961</v>
       </c>
       <c r="F56" t="n">
-        <v>90258</v>
-      </c>
-      <c r="G56" t="inlineStr">
+        <v>90452</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3989167</v>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>조지아</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>GE</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -2403,34 +2573,37 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>360055</v>
+        <v>360828</v>
       </c>
       <c r="B57" t="n">
-        <v>5199</v>
+        <v>5211</v>
       </c>
       <c r="C57" t="n">
-        <v>346217</v>
+        <v>346792</v>
       </c>
       <c r="D57" t="n">
         <v>0.014</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9620000000000001</v>
+        <v>0.961</v>
       </c>
       <c r="F57" t="n">
-        <v>90258</v>
-      </c>
-      <c r="G57" t="inlineStr">
+        <v>90452</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3989167</v>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>조지아</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>GE</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -2438,13 +2611,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>359259</v>
+        <v>359302</v>
       </c>
       <c r="B58" t="n">
-        <v>8188</v>
+        <v>8190</v>
       </c>
       <c r="C58" t="n">
-        <v>350539</v>
+        <v>350595</v>
       </c>
       <c r="D58" t="n">
         <v>0.023</v>
@@ -2453,19 +2626,22 @@
         <v>0.976</v>
       </c>
       <c r="F58" t="n">
-        <v>87512</v>
-      </c>
-      <c r="G58" t="inlineStr">
+        <v>87522</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4105267</v>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>크로아티아</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>HR</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -2490,17 +2666,20 @@
       <c r="F59" t="n">
         <v>103192</v>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G59" t="n">
+        <v>3473730</v>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>우루과이</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>UY</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
@@ -2525,17 +2704,20 @@
       <c r="F60" t="n">
         <v>69810</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G60" t="n">
+        <v>5094118</v>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>코스타리카</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>CR</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -2560,17 +2742,20 @@
       <c r="F61" t="n">
         <v>80301</v>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G61" t="n">
+        <v>4270571</v>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>쿠웨이트</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>KW</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -2578,13 +2763,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>335568</v>
+        <v>335625</v>
       </c>
       <c r="B62" t="n">
-        <v>4963</v>
+        <v>4965</v>
       </c>
       <c r="C62" t="n">
-        <v>329710</v>
+        <v>329794</v>
       </c>
       <c r="D62" t="n">
         <v>0.015</v>
@@ -2593,19 +2778,22 @@
         <v>0.983</v>
       </c>
       <c r="F62" t="n">
-        <v>33096</v>
-      </c>
-      <c r="G62" t="inlineStr">
+        <v>33102</v>
+      </c>
+      <c r="G62" t="n">
+        <v>10139177</v>
+      </c>
+      <c r="H62" t="inlineStr">
         <is>
           <t>아제르바이잔</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>AZ</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -2613,13 +2801,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>335568</v>
+        <v>335625</v>
       </c>
       <c r="B63" t="n">
-        <v>4963</v>
+        <v>4965</v>
       </c>
       <c r="C63" t="n">
-        <v>329710</v>
+        <v>329794</v>
       </c>
       <c r="D63" t="n">
         <v>0.015</v>
@@ -2628,19 +2816,22 @@
         <v>0.983</v>
       </c>
       <c r="F63" t="n">
-        <v>33096</v>
-      </c>
-      <c r="G63" t="inlineStr">
+        <v>33102</v>
+      </c>
+      <c r="G63" t="n">
+        <v>10139177</v>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>아제르바이잔</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>AZ</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -2665,17 +2856,20 @@
       <c r="F64" t="n">
         <v>29348</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G64" t="n">
+        <v>10847910</v>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>도미니카 공화국</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>DO</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -2700,17 +2894,20 @@
       <c r="F65" t="n">
         <v>61358</v>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G65" t="n">
+        <v>5101414</v>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>팔레스타인</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -2718,34 +2915,37 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>291956</v>
+        <v>292179</v>
       </c>
       <c r="B66" t="n">
         <v>2531</v>
       </c>
       <c r="C66" t="n">
-        <v>285375</v>
+        <v>285891</v>
       </c>
       <c r="D66" t="n">
         <v>0.009000000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.977</v>
+        <v>0.978</v>
       </c>
       <c r="F66" t="n">
-        <v>50405</v>
-      </c>
-      <c r="G66" t="inlineStr">
+        <v>50444</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5792202</v>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>덴마크</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>DK</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -2770,17 +2970,20 @@
       <c r="F67" t="n">
         <v>15780</v>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G67" t="n">
+        <v>17915568</v>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>과테말라</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>GT</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -2788,34 +2991,37 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>278466</v>
+        <v>278526</v>
       </c>
       <c r="B68" t="n">
         <v>4371</v>
       </c>
       <c r="C68" t="n">
-        <v>265966</v>
+        <v>266842</v>
       </c>
       <c r="D68" t="n">
         <v>0.016</v>
       </c>
       <c r="E68" t="n">
-        <v>0.955</v>
+        <v>0.958</v>
       </c>
       <c r="F68" t="n">
-        <v>102291</v>
-      </c>
-      <c r="G68" t="inlineStr">
+        <v>102313</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2722289</v>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>리투아니아</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>LT</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -2840,17 +3046,20 @@
       <c r="F69" t="n">
         <v>2719</v>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G69" t="n">
+        <v>102334404</v>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>이집트</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>EG</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -2875,17 +3084,20 @@
       <c r="F70" t="n">
         <v>2395</v>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G70" t="n">
+        <v>114963588</v>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>에티오피아</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>ET</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -2910,17 +3122,20 @@
       <c r="F71" t="n">
         <v>54578</v>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G71" t="n">
+        <v>4937786</v>
+      </c>
+      <c r="H71" t="inlineStr">
         <is>
           <t>아일랜드</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>IE</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -2945,17 +3160,20 @@
       <c r="F72" t="n">
         <v>154968</v>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G72" t="n">
+        <v>1701575</v>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>바레인</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>BH</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -2980,17 +3198,20 @@
       <c r="F73" t="n">
         <v>9262</v>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G73" t="n">
+        <v>28435940</v>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>베네수엘라</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>VE</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
@@ -2998,34 +3219,37 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>257066</v>
+        <v>257116</v>
       </c>
       <c r="B74" t="n">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="C74" t="n">
-        <v>251243</v>
+        <v>251496</v>
       </c>
       <c r="D74" t="n">
         <v>0.017</v>
       </c>
       <c r="E74" t="n">
-        <v>0.977</v>
+        <v>0.978</v>
       </c>
       <c r="F74" t="n">
-        <v>123653</v>
-      </c>
-      <c r="G74" t="inlineStr">
+        <v>123677</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2078938</v>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>슬로베니아</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -3050,17 +3274,20 @@
       <c r="F75" t="n">
         <v>63519</v>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G75" t="n">
+        <v>4033963</v>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>몰도바</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -3085,17 +3312,20 @@
       <c r="F76" t="n">
         <v>25757</v>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G76" t="n">
+        <v>9904607</v>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>온두라스</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>HN</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -3103,34 +3333,37 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>252609</v>
+        <v>254656</v>
       </c>
       <c r="B77" t="n">
-        <v>2782</v>
+        <v>2816</v>
       </c>
       <c r="C77" t="n">
-        <v>221250</v>
+        <v>222344</v>
       </c>
       <c r="D77" t="n">
         <v>0.011</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8759999999999999</v>
+        <v>0.873</v>
       </c>
       <c r="F77" t="n">
-        <v>49467</v>
-      </c>
-      <c r="G77" t="inlineStr">
+        <v>49868</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5106626</v>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>오만</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>OM</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -3155,17 +3388,20 @@
       <c r="F78" t="n">
         <v>11391</v>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G78" t="n">
+        <v>21413249</v>
+      </c>
+      <c r="H78" t="inlineStr">
         <is>
           <t>스리랑카</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>LK</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -3190,13 +3426,16 @@
       <c r="F79" t="n">
         <v>3274</v>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G79" t="n">
+        <v>69799978</v>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>태국</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -3204,34 +3443,37 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>224330</v>
+        <v>224430</v>
       </c>
       <c r="B80" t="n">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="C80" t="n">
-        <v>216182</v>
+        <v>216230</v>
       </c>
       <c r="D80" t="n">
         <v>0.02</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9640000000000001</v>
+        <v>0.963</v>
       </c>
       <c r="F80" t="n">
-        <v>75704</v>
-      </c>
-      <c r="G80" t="inlineStr">
+        <v>75738</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2963243</v>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>아르메니아</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -3239,34 +3481,37 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>224330</v>
+        <v>224430</v>
       </c>
       <c r="B81" t="n">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="C81" t="n">
-        <v>216182</v>
+        <v>216230</v>
       </c>
       <c r="D81" t="n">
         <v>0.02</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9640000000000001</v>
+        <v>0.963</v>
       </c>
       <c r="F81" t="n">
-        <v>75704</v>
-      </c>
-      <c r="G81" t="inlineStr">
+        <v>75738</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2963243</v>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>아르메니아</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -3274,13 +3519,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>221119</v>
+        <v>221273</v>
       </c>
       <c r="B82" t="n">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C82" t="n">
-        <v>218584</v>
+        <v>218787</v>
       </c>
       <c r="D82" t="n">
         <v>0.003</v>
@@ -3289,19 +3534,22 @@
         <v>0.9890000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>76749</v>
-      </c>
-      <c r="G82" t="inlineStr">
+        <v>76803</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2881053</v>
+      </c>
+      <c r="H82" t="inlineStr">
         <is>
           <t>카타르</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -3309,34 +3557,37 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>204886</v>
+        <v>204910</v>
       </c>
       <c r="B83" t="n">
-        <v>9648</v>
+        <v>9651</v>
       </c>
       <c r="C83" t="n">
-        <v>180643</v>
+        <v>180862</v>
       </c>
       <c r="D83" t="n">
         <v>0.047</v>
       </c>
       <c r="E83" t="n">
-        <v>0.882</v>
+        <v>0.883</v>
       </c>
       <c r="F83" t="n">
-        <v>62450</v>
-      </c>
-      <c r="G83" t="inlineStr">
+        <v>62457</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3280819</v>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>보스니아 헤르체고비나</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>BA</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -3344,13 +3595,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>191253</v>
+        <v>191476</v>
       </c>
       <c r="B84" t="n">
-        <v>3181</v>
+        <v>3183</v>
       </c>
       <c r="C84" t="n">
-        <v>176649</v>
+        <v>176869</v>
       </c>
       <c r="D84" t="n">
         <v>0.017</v>
@@ -3359,19 +3610,22 @@
         <v>0.924</v>
       </c>
       <c r="F84" t="n">
-        <v>27834</v>
-      </c>
-      <c r="G84" t="inlineStr">
+        <v>27866</v>
+      </c>
+      <c r="G84" t="n">
+        <v>6871292</v>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>리비아</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>LY</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -3396,17 +3650,20 @@
       <c r="F85" t="n">
         <v>3345</v>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G85" t="n">
+        <v>53771296</v>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>케냐</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>KE</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -3431,17 +3688,20 @@
       <c r="F86" t="n">
         <v>15084</v>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G86" t="n">
+        <v>11326616</v>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t>쿠바</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>CU</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -3466,17 +3726,20 @@
       <c r="F87" t="n">
         <v>812</v>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G87" t="n">
+        <v>206139589</v>
+      </c>
+      <c r="H87" t="inlineStr">
         <is>
           <t>나이지리아</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>NG</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -3501,13 +3764,16 @@
       <c r="F88" t="n">
         <v>74706</v>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G88" t="n">
+        <v>2083374</v>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t>북마케도니아</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -3532,17 +3798,20 @@
       <c r="F89" t="n">
         <v>2975</v>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G89" t="n">
+        <v>51269185</v>
+      </c>
+      <c r="H89" t="inlineStr">
         <is>
           <t>대한민국</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>KR</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -3567,17 +3836,20 @@
       <c r="F90" t="n">
         <v>2743</v>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G90" t="n">
+        <v>54409800</v>
+      </c>
+      <c r="H90" t="inlineStr">
         <is>
           <t>미얀마</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>MM</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -3585,7 +3857,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>136975</v>
+        <v>137077</v>
       </c>
       <c r="B91" t="n">
         <v>2497</v>
@@ -3597,22 +3869,25 @@
         <v>0.018</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9690000000000001</v>
+        <v>0.968</v>
       </c>
       <c r="F91" t="n">
-        <v>72620</v>
-      </c>
-      <c r="G91" t="inlineStr">
+        <v>72674</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1886198</v>
+      </c>
+      <c r="H91" t="inlineStr">
         <is>
           <t>라트비아</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>LV</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -3620,34 +3895,37 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>136679</v>
+        <v>137026</v>
       </c>
       <c r="B92" t="n">
-        <v>3650</v>
+        <v>1794</v>
       </c>
       <c r="C92" t="n">
-        <v>95084</v>
+        <v>113109</v>
       </c>
       <c r="D92" t="n">
-        <v>0.027</v>
+        <v>0.013</v>
       </c>
       <c r="E92" t="n">
-        <v>0.696</v>
+        <v>0.825</v>
       </c>
       <c r="F92" t="n">
-        <v>3117</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>알제리</t>
-        </is>
+        <v>7454</v>
+      </c>
+      <c r="G92" t="n">
+        <v>18383955</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>DZ</t>
+          <t>잠비아</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
+        <is>
+          <t>ZM</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -3655,34 +3933,37 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>133659</v>
+        <v>136679</v>
       </c>
       <c r="B93" t="n">
-        <v>1744</v>
+        <v>3650</v>
       </c>
       <c r="C93" t="n">
-        <v>111844</v>
+        <v>95084</v>
       </c>
       <c r="D93" t="n">
-        <v>0.013</v>
+        <v>0.027</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8370000000000001</v>
+        <v>0.696</v>
       </c>
       <c r="F93" t="n">
-        <v>7270</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>잠비아</t>
-        </is>
+        <v>3117</v>
+      </c>
+      <c r="G93" t="n">
+        <v>43851044</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>알제리</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
+        <is>
+          <t>DZ</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -3707,17 +3988,20 @@
       <c r="F94" t="n">
         <v>46041</v>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G94" t="n">
+        <v>2877797</v>
+      </c>
+      <c r="H94" t="inlineStr">
         <is>
           <t>알바니아</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -3725,34 +4009,37 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>130855</v>
+        <v>130880</v>
       </c>
       <c r="B95" t="n">
         <v>1269</v>
       </c>
       <c r="C95" t="n">
-        <v>126798</v>
+        <v>126910</v>
       </c>
       <c r="D95" t="n">
         <v>0.01</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9690000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="F95" t="n">
-        <v>98644</v>
-      </c>
-      <c r="G95" t="inlineStr">
+        <v>98663</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1326535</v>
+      </c>
+      <c r="H95" t="inlineStr">
         <is>
           <t>에스토니아</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>EE</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -3760,10 +4047,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>129766</v>
+        <v>129944</v>
       </c>
       <c r="B96" t="n">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C96" t="n">
         <v>88952</v>
@@ -3775,19 +4062,22 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>23937</v>
-      </c>
-      <c r="G96" t="inlineStr">
+        <v>23969</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5421241</v>
+      </c>
+      <c r="H96" t="inlineStr">
         <is>
           <t>노르웨이</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -3795,34 +4085,37 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>116546</v>
+        <v>117284</v>
       </c>
       <c r="B97" t="n">
-        <v>1945</v>
+        <v>1953</v>
       </c>
       <c r="C97" t="n">
-        <v>105932</v>
+        <v>106383</v>
       </c>
       <c r="D97" t="n">
         <v>0.017</v>
       </c>
       <c r="E97" t="n">
-        <v>0.909</v>
+        <v>0.907</v>
       </c>
       <c r="F97" t="n">
-        <v>17864</v>
-      </c>
-      <c r="G97" t="inlineStr">
+        <v>17977</v>
+      </c>
+      <c r="G97" t="n">
+        <v>6524195</v>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>키르기스스탄</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -3830,34 +4123,37 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>107957</v>
+        <v>109625</v>
       </c>
       <c r="B98" t="n">
-        <v>4366</v>
+        <v>4456</v>
       </c>
       <c r="C98" t="n">
-        <v>65565</v>
+        <v>66102</v>
       </c>
       <c r="D98" t="n">
-        <v>0.04</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>0.607</v>
+        <v>0.603</v>
       </c>
       <c r="F98" t="n">
-        <v>2773</v>
-      </c>
-      <c r="G98" t="inlineStr">
+        <v>2816</v>
+      </c>
+      <c r="G98" t="n">
+        <v>38928346</v>
+      </c>
+      <c r="H98" t="inlineStr">
         <is>
           <t>아프가니스탄</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>AF</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -3865,137 +4161,149 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>107247</v>
+        <v>107266</v>
       </c>
       <c r="B99" t="n">
-        <v>2256</v>
+        <v>722</v>
       </c>
       <c r="C99" t="n">
-        <v>105025</v>
+        <v>103074</v>
       </c>
       <c r="D99" t="n">
-        <v>0.021</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9790000000000001</v>
+        <v>0.961</v>
       </c>
       <c r="F99" t="n">
-        <v>59237</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>코소보</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr"/>
+        <v>3205</v>
+      </c>
+      <c r="G99" t="n">
+        <v>33469203</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>우즈베키스탄</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>UZ</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Asia</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>106847</v>
+        <v>107247</v>
       </c>
       <c r="B100" t="n">
-        <v>720</v>
+        <v>2256</v>
       </c>
       <c r="C100" t="n">
-        <v>102546</v>
+        <v>105025</v>
       </c>
       <c r="D100" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.021</v>
       </c>
       <c r="E100" t="n">
-        <v>0.96</v>
+        <v>0.9790000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>3192</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>우즈베키스탄</t>
-        </is>
+        <v>59237</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1810463</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>UZ</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Asia</t>
+          <t>코소보</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Africa</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>100104</v>
+        <v>100263</v>
       </c>
       <c r="B101" t="n">
-        <v>1606</v>
+        <v>469</v>
       </c>
       <c r="C101" t="n">
-        <v>98202</v>
+        <v>65543</v>
       </c>
       <c r="D101" t="n">
-        <v>0.016</v>
+        <v>0.005</v>
       </c>
       <c r="E101" t="n">
-        <v>0.981</v>
+        <v>0.654</v>
       </c>
       <c r="F101" t="n">
-        <v>159385</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>몬테네그로</t>
-        </is>
+        <v>30584</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3278290</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>몽골</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Asia</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>98050</v>
+        <v>100104</v>
       </c>
       <c r="B102" t="n">
-        <v>459</v>
+        <v>1606</v>
       </c>
       <c r="C102" t="n">
-        <v>64354</v>
+        <v>98202</v>
       </c>
       <c r="D102" t="n">
-        <v>0.005</v>
+        <v>0.016</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6559999999999999</v>
+        <v>0.981</v>
       </c>
       <c r="F102" t="n">
-        <v>29909</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>몽골</t>
-        </is>
+        <v>159385</v>
+      </c>
+      <c r="G102" t="n">
+        <v>628066</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>몬테네그로</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Europe</t>
         </is>
       </c>
     </row>
@@ -4018,17 +4326,20 @@
       <c r="F103" t="n">
         <v>3065</v>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G103" t="n">
+        <v>31072940</v>
+      </c>
+      <c r="H103" t="inlineStr">
         <is>
           <t>가나</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>GH</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4036,10 +4347,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>94489</v>
+        <v>94596</v>
       </c>
       <c r="B104" t="n">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C104" t="n">
         <v>46000</v>
@@ -4048,22 +4359,25 @@
         <v>0.01</v>
       </c>
       <c r="E104" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="F104" t="n">
-        <v>17054</v>
-      </c>
-      <c r="G104" t="inlineStr">
+        <v>17073</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5540720</v>
+      </c>
+      <c r="H104" t="inlineStr">
         <is>
           <t>핀란드</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>FI</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -4088,13 +4402,16 @@
       <c r="F105" t="n">
         <v>64</v>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="G105" t="n">
+        <v>1439323776</v>
+      </c>
+      <c r="H105" t="inlineStr">
         <is>
           <t>중국</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr">
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4119,17 +4436,20 @@
       <c r="F106" t="n">
         <v>3032</v>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="G106" t="n">
+        <v>26545863</v>
+      </c>
+      <c r="H106" t="inlineStr">
         <is>
           <t>카메룬</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4140,7 +4460,7 @@
         <v>77484</v>
       </c>
       <c r="B107" t="n">
-        <v>2341</v>
+        <v>2346</v>
       </c>
       <c r="C107" t="n">
         <v>71603</v>
@@ -4154,17 +4474,20 @@
       <c r="F107" t="n">
         <v>11946</v>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="G107" t="n">
+        <v>6486205</v>
+      </c>
+      <c r="H107" t="inlineStr">
         <is>
           <t>엘살바도르</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>SV</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -4172,30 +4495,33 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>75766</v>
+        <v>77333</v>
       </c>
       <c r="B108" t="n">
-        <v>1179</v>
+        <v>1224</v>
       </c>
       <c r="C108" t="n">
-        <v>60484</v>
+        <v>61211</v>
       </c>
       <c r="D108" t="n">
         <v>0.016</v>
       </c>
       <c r="E108" t="n">
-        <v>0.7979999999999999</v>
+        <v>0.792</v>
       </c>
       <c r="F108" t="n">
-        <v>29819</v>
-      </c>
-      <c r="G108" t="inlineStr">
+        <v>30435</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2540905</v>
+      </c>
+      <c r="H108" t="inlineStr">
         <is>
           <t>나미비아</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr">
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4220,17 +4546,20 @@
       <c r="F109" t="n">
         <v>61152</v>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="G109" t="n">
+        <v>1207359</v>
+      </c>
+      <c r="H109" t="inlineStr">
         <is>
           <t>키프로스</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>CY</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -4255,17 +4584,20 @@
       <c r="F110" t="n">
         <v>61152</v>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="G110" t="n">
+        <v>1207359</v>
+      </c>
+      <c r="H110" t="inlineStr">
         <is>
           <t>키프로스</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>CY</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -4290,17 +4622,20 @@
       <c r="F111" t="n">
         <v>1605</v>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="G111" t="n">
+        <v>45741007</v>
+      </c>
+      <c r="H111" t="inlineStr">
         <is>
           <t>우간다</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>UG</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4325,17 +4660,20 @@
       <c r="F112" t="n">
         <v>2328</v>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="G112" t="n">
+        <v>31255435</v>
+      </c>
+      <c r="H112" t="inlineStr">
         <is>
           <t>모잠비크</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>MZ</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4360,17 +4698,20 @@
       <c r="F113" t="n">
         <v>133743</v>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="G113" t="n">
+        <v>540544</v>
+      </c>
+      <c r="H113" t="inlineStr">
         <is>
           <t>몰디브</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>MV</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -4395,17 +4736,20 @@
       <c r="F114" t="n">
         <v>112699</v>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="G114" t="n">
+        <v>625978</v>
+      </c>
+      <c r="H114" t="inlineStr">
         <is>
           <t>룩셈부르크</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>LU</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -4430,17 +4774,20 @@
       <c r="F115" t="n">
         <v>27984</v>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="G115" t="n">
+        <v>2351627</v>
+      </c>
+      <c r="H115" t="inlineStr">
         <is>
           <t>보츠와나</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>BW</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4448,7 +4795,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>62448</v>
+        <v>62470</v>
       </c>
       <c r="B116" t="n">
         <v>35</v>
@@ -4463,19 +4810,22 @@
         <v>0.9940000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>10674</v>
-      </c>
-      <c r="G116" t="inlineStr">
+        <v>10678</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5850342</v>
+      </c>
+      <c r="H116" t="inlineStr">
         <is>
           <t>싱가포르</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>SG</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -4500,17 +4850,20 @@
       <c r="F117" t="n">
         <v>16796</v>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="G117" t="n">
+        <v>2961167</v>
+      </c>
+      <c r="H117" t="inlineStr">
         <is>
           <t>자메이카</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>JM</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -4535,17 +4888,20 @@
       <c r="F118" t="n">
         <v>1822</v>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="G118" t="n">
+        <v>26378274</v>
+      </c>
+      <c r="H118" t="inlineStr">
         <is>
           <t>코트디부아르</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>CI</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4553,34 +4909,37 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>44124</v>
+        <v>44711</v>
       </c>
       <c r="B119" t="n">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="C119" t="n">
-        <v>38766</v>
+        <v>39314</v>
       </c>
       <c r="D119" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="E119" t="n">
         <v>0.879</v>
       </c>
       <c r="F119" t="n">
-        <v>2639</v>
-      </c>
-      <c r="G119" t="inlineStr">
+        <v>2674</v>
+      </c>
+      <c r="G119" t="n">
+        <v>16718965</v>
+      </c>
+      <c r="H119" t="inlineStr">
         <is>
           <t>캄보디아</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>KH</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -4605,17 +4964,20 @@
       <c r="F120" t="n">
         <v>2874</v>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="G120" t="n">
+        <v>14862924</v>
+      </c>
+      <c r="H120" t="inlineStr">
         <is>
           <t>짐바브웨</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>ZW</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4623,34 +4985,37 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>42472</v>
+        <v>42590</v>
       </c>
       <c r="B121" t="n">
         <v>1159</v>
       </c>
       <c r="C121" t="n">
-        <v>40963</v>
+        <v>41022</v>
       </c>
       <c r="D121" t="n">
         <v>0.027</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9640000000000001</v>
+        <v>0.963</v>
       </c>
       <c r="F121" t="n">
-        <v>2537</v>
-      </c>
-      <c r="G121" t="inlineStr">
+        <v>2544</v>
+      </c>
+      <c r="G121" t="n">
+        <v>16743927</v>
+      </c>
+      <c r="H121" t="inlineStr">
         <is>
           <t>세네갈</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>SN</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4658,34 +5023,37 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>42137</v>
+        <v>42161</v>
       </c>
       <c r="B122" t="n">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C122" t="n">
-        <v>40469</v>
+        <v>40500</v>
       </c>
       <c r="D122" t="n">
         <v>0.021</v>
       </c>
       <c r="E122" t="n">
-        <v>0.96</v>
+        <v>0.961</v>
       </c>
       <c r="F122" t="n">
-        <v>1522</v>
-      </c>
-      <c r="G122" t="inlineStr">
+        <v>1523</v>
+      </c>
+      <c r="G122" t="n">
+        <v>27691018</v>
+      </c>
+      <c r="H122" t="inlineStr">
         <is>
           <t>마다가스카르</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>MG</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4710,13 +5078,16 @@
       <c r="F123" t="n">
         <v>428</v>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="G123" t="n">
+        <v>89561403</v>
+      </c>
+      <c r="H123" t="inlineStr">
         <is>
           <t>콩고민주공화국</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr">
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4741,17 +5112,20 @@
       <c r="F124" t="n">
         <v>1152</v>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="G124" t="n">
+        <v>32866272</v>
+      </c>
+      <c r="H124" t="inlineStr">
         <is>
           <t>앙골라</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>AO</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4776,17 +5150,20 @@
       <c r="F125" t="n">
         <v>833</v>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="G125" t="n">
+        <v>43849260</v>
+      </c>
+      <c r="H125" t="inlineStr">
         <is>
           <t>수단</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
+      <c r="J125" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4811,17 +5188,20 @@
       <c r="F126" t="n">
         <v>1829</v>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="G126" t="n">
+        <v>19129952</v>
+      </c>
+      <c r="H126" t="inlineStr">
         <is>
           <t>말라위</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>MW</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4846,17 +5226,20 @@
       <c r="F127" t="n">
         <v>2493</v>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="G127" t="n">
+        <v>12952218</v>
+      </c>
+      <c r="H127" t="inlineStr">
         <is>
           <t>르완다</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4881,17 +5264,20 @@
       <c r="F128" t="n">
         <v>57755</v>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="G128" t="n">
+        <v>555987</v>
+      </c>
+      <c r="H128" t="inlineStr">
         <is>
           <t>카보베르데</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>CV</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4916,17 +5302,20 @@
       <c r="F129" t="n">
         <v>22138</v>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="G129" t="n">
+        <v>1399488</v>
+      </c>
+      <c r="H129" t="inlineStr">
         <is>
           <t>트리니다드 토바고</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>TT</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
+      <c r="J129" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -4940,7 +5329,7 @@
         <v>420</v>
       </c>
       <c r="C130" t="n">
-        <v>30148</v>
+        <v>30149</v>
       </c>
       <c r="D130" t="n">
         <v>0.014</v>
@@ -4951,13 +5340,16 @@
       <c r="F130" t="n">
         <v>69291</v>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="G130" t="n">
+        <v>441543</v>
+      </c>
+      <c r="H130" t="inlineStr">
         <is>
           <t>몰타 공화국</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr">
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -4982,13 +5374,16 @@
       <c r="F131" t="n">
         <v>1191</v>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="G131" t="n">
+        <v>25499884</v>
+      </c>
+      <c r="H131" t="inlineStr">
         <is>
           <t>호주</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr">
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5013,17 +5408,20 @@
       <c r="F132" t="n">
         <v>32952</v>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="G132" t="n">
+        <v>895312</v>
+      </c>
+      <c r="H132" t="inlineStr">
         <is>
           <t>레위니옹</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>RE</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5048,17 +5446,20 @@
       <c r="F133" t="n">
         <v>89724</v>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G133" t="n">
+        <v>298682</v>
+      </c>
+      <c r="H133" t="inlineStr">
         <is>
           <t>프랑스령 기아나</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>GF</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
@@ -5083,17 +5484,20 @@
       <c r="F134" t="n">
         <v>1440</v>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G134" t="n">
+        <v>17500658</v>
+      </c>
+      <c r="H134" t="inlineStr">
         <is>
           <t>시리아</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>SY</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -5118,17 +5522,20 @@
       <c r="F135" t="n">
         <v>11181</v>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="G135" t="n">
+        <v>2225734</v>
+      </c>
+      <c r="H135" t="inlineStr">
         <is>
           <t>가봉</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>GA</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr">
+      <c r="J135" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5136,34 +5543,37 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>23543</v>
+        <v>23579</v>
       </c>
       <c r="B136" t="n">
         <v>168</v>
       </c>
       <c r="C136" t="n">
-        <v>22340</v>
+        <v>22360</v>
       </c>
       <c r="D136" t="n">
         <v>0.006999999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9490000000000001</v>
+        <v>0.948</v>
       </c>
       <c r="F136" t="n">
-        <v>1793</v>
-      </c>
-      <c r="G136" t="inlineStr">
+        <v>1795</v>
+      </c>
+      <c r="G136" t="n">
+        <v>13132795</v>
+      </c>
+      <c r="H136" t="inlineStr">
         <is>
           <t>기니</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>GN</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
+      <c r="J136" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5188,17 +5598,20 @@
       <c r="F137" t="n">
         <v>4391</v>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G137" t="n">
+        <v>4649658</v>
+      </c>
+      <c r="H137" t="inlineStr">
         <is>
           <t>모리타니</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>MR</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
+      <c r="J137" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5223,17 +5636,20 @@
       <c r="F138" t="n">
         <v>34601</v>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="G138" t="n">
+        <v>586632</v>
+      </c>
+      <c r="H138" t="inlineStr">
         <is>
           <t>수리남</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>SR</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
@@ -5258,17 +5674,20 @@
       <c r="F139" t="n">
         <v>71070</v>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="G139" t="n">
+        <v>272815</v>
+      </c>
+      <c r="H139" t="inlineStr">
         <is>
           <t>마요트</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>YT</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5293,17 +5712,20 @@
       <c r="F140" t="n">
         <v>24454</v>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="G140" t="n">
+        <v>786552</v>
+      </c>
+      <c r="H140" t="inlineStr">
         <is>
           <t>가이아나</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>GY</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
@@ -5328,17 +5750,20 @@
       <c r="F141" t="n">
         <v>67570</v>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="G141" t="n">
+        <v>280908</v>
+      </c>
+      <c r="H141" t="inlineStr">
         <is>
           <t>프랑스령 폴리네시아</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
@@ -5363,13 +5788,16 @@
       <c r="F142" t="n">
         <v>16251</v>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="G142" t="n">
+        <v>1160164</v>
+      </c>
+      <c r="H142" t="inlineStr">
         <is>
           <t>에스와티니</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr">
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5394,17 +5822,20 @@
       <c r="F143" t="n">
         <v>1553</v>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="G143" t="n">
+        <v>11402528</v>
+      </c>
+      <c r="H143" t="inlineStr">
         <is>
           <t>아이티</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>HT</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -5412,30 +5843,33 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>17013</v>
+        <v>17079</v>
       </c>
       <c r="B144" t="n">
         <v>173</v>
       </c>
       <c r="C144" t="n">
-        <v>16396</v>
+        <v>16480</v>
       </c>
       <c r="D144" t="n">
         <v>0.01</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9640000000000001</v>
+        <v>0.965</v>
       </c>
       <c r="F144" t="n">
-        <v>1902</v>
-      </c>
-      <c r="G144" t="inlineStr">
+        <v>1909</v>
+      </c>
+      <c r="G144" t="n">
+        <v>8947024</v>
+      </c>
+      <c r="H144" t="inlineStr">
         <is>
           <t>파푸아뉴기니</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr">
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5460,17 +5894,20 @@
       <c r="F145" t="n">
         <v>41867</v>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="G145" t="n">
+        <v>400124</v>
+      </c>
+      <c r="H145" t="inlineStr">
         <is>
           <t>과들루프</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>GP</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -5495,17 +5932,20 @@
       <c r="F146" t="n">
         <v>935</v>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="G146" t="n">
+        <v>15893222</v>
+      </c>
+      <c r="H146" t="inlineStr">
         <is>
           <t>소말리아</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="I146" t="inlineStr">
         <is>
           <t>SO</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
+      <c r="J146" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5530,17 +5970,20 @@
       <c r="F147" t="n">
         <v>148657</v>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="G147" t="n">
+        <v>98347</v>
+      </c>
+      <c r="H147" t="inlineStr">
         <is>
           <t>세이셸</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="I147" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
+      <c r="J147" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5565,17 +6008,20 @@
       <c r="F148" t="n">
         <v>710</v>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="G148" t="n">
+        <v>20250833</v>
+      </c>
+      <c r="H148" t="inlineStr">
         <is>
           <t>말리</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="I148" t="inlineStr">
         <is>
           <t>ML</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
+      <c r="J148" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5600,13 +6046,16 @@
       <c r="F149" t="n">
         <v>594</v>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="G149" t="n">
+        <v>23816775</v>
+      </c>
+      <c r="H149" t="inlineStr">
         <is>
           <t>대만</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr">
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5631,17 +6080,20 @@
       <c r="F150" t="n">
         <v>179434</v>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="G150" t="n">
+        <v>77265</v>
+      </c>
+      <c r="H150" t="inlineStr">
         <is>
           <t>안도라</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="I150" t="inlineStr">
         <is>
           <t>AD</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
+      <c r="J150" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -5649,7 +6101,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>13782</v>
+        <v>13862</v>
       </c>
       <c r="B151" t="n">
         <v>69</v>
@@ -5661,22 +6113,25 @@
         <v>0.005</v>
       </c>
       <c r="E151" t="n">
-        <v>0.402</v>
+        <v>0.4</v>
       </c>
       <c r="F151" t="n">
         <v>142</v>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="G151" t="n">
+        <v>97338579</v>
+      </c>
+      <c r="H151" t="inlineStr">
         <is>
           <t>베트남</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="I151" t="inlineStr">
         <is>
           <t>VN</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
+      <c r="J151" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -5701,17 +6156,20 @@
       <c r="F152" t="n">
         <v>1659</v>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="G152" t="n">
+        <v>8278724</v>
+      </c>
+      <c r="H152" t="inlineStr">
         <is>
           <t>토고</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="I152" t="inlineStr">
         <is>
           <t>TG</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
+      <c r="J152" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5736,17 +6194,20 @@
       <c r="F153" t="n">
         <v>644</v>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="G153" t="n">
+        <v>20903273</v>
+      </c>
+      <c r="H153" t="inlineStr">
         <is>
           <t>부르키나파소</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="I153" t="inlineStr">
         <is>
           <t>BF</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
+      <c r="J153" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5754,7 +6215,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>13308</v>
+        <v>13358</v>
       </c>
       <c r="B154" t="n">
         <v>90</v>
@@ -5766,22 +6227,25 @@
         <v>0.006999999999999999</v>
       </c>
       <c r="E154" t="n">
-        <v>0.993</v>
+        <v>0.99</v>
       </c>
       <c r="F154" t="n">
-        <v>1395</v>
-      </c>
-      <c r="G154" t="inlineStr">
+        <v>1401</v>
+      </c>
+      <c r="G154" t="n">
+        <v>9537645</v>
+      </c>
+      <c r="H154" t="inlineStr">
         <is>
           <t>타지키스탄</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="I154" t="inlineStr">
         <is>
           <t>TJ</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -5806,17 +6270,20 @@
       <c r="F155" t="n">
         <v>32842</v>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="G155" t="n">
+        <v>397628</v>
+      </c>
+      <c r="H155" t="inlineStr">
         <is>
           <t>벨리즈</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="I155" t="inlineStr">
         <is>
           <t>BZ</t>
         </is>
       </c>
-      <c r="I155" t="inlineStr">
+      <c r="J155" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -5841,13 +6308,16 @@
       <c r="F156" t="n">
         <v>2248</v>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="G156" t="n">
+        <v>5518087</v>
+      </c>
+      <c r="H156" t="inlineStr">
         <is>
           <t>콩고공화국</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr">
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5872,17 +6342,20 @@
       <c r="F157" t="n">
         <v>31479</v>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="G157" t="n">
+        <v>393244</v>
+      </c>
+      <c r="H157" t="inlineStr">
         <is>
           <t>바하마</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="I157" t="inlineStr">
         <is>
           <t>BS</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr">
+      <c r="J157" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -5907,13 +6380,16 @@
       <c r="F158" t="n">
         <v>75085</v>
       </c>
-      <c r="G158" t="inlineStr">
+      <c r="G158" t="n">
+        <v>164093</v>
+      </c>
+      <c r="H158" t="inlineStr">
         <is>
           <t>퀴라소</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr">
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -5938,17 +6414,20 @@
       <c r="F159" t="n">
         <v>32681</v>
       </c>
-      <c r="G159" t="inlineStr">
+      <c r="G159" t="n">
+        <v>375265</v>
+      </c>
+      <c r="H159" t="inlineStr">
         <is>
           <t>마르티니크</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="I159" t="inlineStr">
         <is>
           <t>MQ</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
+      <c r="J159" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -5973,17 +6452,20 @@
       <c r="F160" t="n">
         <v>1587</v>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="G160" t="n">
+        <v>7496981</v>
+      </c>
+      <c r="H160" t="inlineStr">
         <is>
           <t>홍콩</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t>HK</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr">
+      <c r="J160" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -6008,17 +6490,20 @@
       <c r="F161" t="n">
         <v>11736</v>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="G161" t="n">
+        <v>988000</v>
+      </c>
+      <c r="H161" t="inlineStr">
         <is>
           <t>지부티</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="I161" t="inlineStr">
         <is>
           <t>DJ</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
+      <c r="J161" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6043,17 +6528,20 @@
       <c r="F162" t="n">
         <v>5195</v>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="G162" t="n">
+        <v>2142249</v>
+      </c>
+      <c r="H162" t="inlineStr">
         <is>
           <t>레소토</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="I162" t="inlineStr">
         <is>
           <t>LS</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6078,17 +6566,20 @@
       <c r="F163" t="n">
         <v>104116</v>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="G163" t="n">
+        <v>106766</v>
+      </c>
+      <c r="H163" t="inlineStr">
         <is>
           <t>아루바</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="I163" t="inlineStr">
         <is>
           <t>AW</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
+      <c r="J163" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -6113,17 +6604,20 @@
       <c r="F164" t="n">
         <v>964</v>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="G164" t="n">
+        <v>11193725</v>
+      </c>
+      <c r="H164" t="inlineStr">
         <is>
           <t>남수단</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="I164" t="inlineStr">
         <is>
           <t>SS</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6131,34 +6625,37 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>8781</v>
+        <v>8843</v>
       </c>
       <c r="B165" t="n">
         <v>19</v>
       </c>
       <c r="C165" t="n">
-        <v>7762</v>
+        <v>7838</v>
       </c>
       <c r="D165" t="n">
         <v>0.002</v>
       </c>
       <c r="E165" t="n">
-        <v>0.884</v>
+        <v>0.8859999999999999</v>
       </c>
       <c r="F165" t="n">
-        <v>6660</v>
-      </c>
-      <c r="G165" t="inlineStr">
+        <v>6707</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1318445</v>
+      </c>
+      <c r="H165" t="inlineStr">
         <is>
           <t>동티모르</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="I165" t="inlineStr">
         <is>
           <t>TL</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
+      <c r="J165" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -6183,17 +6680,20 @@
       <c r="F166" t="n">
         <v>6207</v>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="G166" t="n">
+        <v>1402985</v>
+      </c>
+      <c r="H166" t="inlineStr">
         <is>
           <t>적도 기니</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="I166" t="inlineStr">
         <is>
           <t>GQ</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6218,17 +6718,20 @@
       <c r="F167" t="n">
         <v>674</v>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="G167" t="n">
+        <v>12123200</v>
+      </c>
+      <c r="H167" t="inlineStr">
         <is>
           <t>베냉</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>BJ</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6253,17 +6756,20 @@
       <c r="F168" t="n">
         <v>1196</v>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="G168" t="n">
+        <v>6624554</v>
+      </c>
+      <c r="H168" t="inlineStr">
         <is>
           <t>니카라과</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="I168" t="inlineStr">
         <is>
           <t>NI</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -6288,17 +6794,20 @@
       <c r="F169" t="n">
         <v>1478</v>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="G169" t="n">
+        <v>4829767</v>
+      </c>
+      <c r="H169" t="inlineStr">
         <is>
           <t>중앙아프리카 공화국</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="I169" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr">
+      <c r="J169" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6323,17 +6832,20 @@
       <c r="F170" t="n">
         <v>231</v>
       </c>
-      <c r="G170" t="inlineStr">
+      <c r="G170" t="n">
+        <v>29825964</v>
+      </c>
+      <c r="H170" t="inlineStr">
         <is>
           <t>예멘</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="I170" t="inlineStr">
         <is>
           <t>YE</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr">
+      <c r="J170" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -6358,17 +6870,20 @@
       <c r="F171" t="n">
         <v>19429</v>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="G171" t="n">
+        <v>341243</v>
+      </c>
+      <c r="H171" t="inlineStr">
         <is>
           <t>아이슬란드</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="I171" t="inlineStr">
         <is>
           <t>IS</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr">
+      <c r="J171" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -6393,17 +6908,20 @@
       <c r="F172" t="n">
         <v>2501</v>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="G172" t="n">
+        <v>2416668</v>
+      </c>
+      <c r="H172" t="inlineStr">
         <is>
           <t>감비아</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="I172" t="inlineStr">
         <is>
           <t>GM</t>
         </is>
       </c>
-      <c r="I172" t="inlineStr">
+      <c r="J172" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6428,17 +6946,20 @@
       <c r="F173" t="n">
         <v>1553</v>
       </c>
-      <c r="G173" t="inlineStr">
+      <c r="G173" t="n">
+        <v>3546421</v>
+      </c>
+      <c r="H173" t="inlineStr">
         <is>
           <t>에리트레아</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="I173" t="inlineStr">
         <is>
           <t>ER</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
+      <c r="J173" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6463,17 +6984,20 @@
       <c r="F174" t="n">
         <v>226</v>
       </c>
-      <c r="G174" t="inlineStr">
+      <c r="G174" t="n">
+        <v>24206644</v>
+      </c>
+      <c r="H174" t="inlineStr">
         <is>
           <t>니제르</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
+      <c r="I174" t="inlineStr">
         <is>
           <t>NE</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr">
+      <c r="J174" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6498,17 +7022,20 @@
       <c r="F175" t="n">
         <v>443</v>
       </c>
-      <c r="G175" t="inlineStr">
+      <c r="G175" t="n">
+        <v>11890784</v>
+      </c>
+      <c r="H175" t="inlineStr">
         <is>
           <t>부룬디</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
+      <c r="I175" t="inlineStr">
         <is>
           <t>BI</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr">
+      <c r="J175" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6533,17 +7060,20 @@
       <c r="F176" t="n">
         <v>28465</v>
       </c>
-      <c r="G176" t="inlineStr">
+      <c r="G176" t="n">
+        <v>183627</v>
+      </c>
+      <c r="H176" t="inlineStr">
         <is>
           <t>세인트루시아</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="I176" t="inlineStr">
         <is>
           <t>LC</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr">
+      <c r="J176" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -6557,7 +7087,7 @@
         <v>90</v>
       </c>
       <c r="C177" t="n">
-        <v>4999</v>
+        <v>5000</v>
       </c>
       <c r="D177" t="n">
         <v>0.018</v>
@@ -6568,17 +7098,20 @@
       <c r="F177" t="n">
         <v>150010</v>
       </c>
-      <c r="G177" t="inlineStr">
+      <c r="G177" t="n">
+        <v>33931</v>
+      </c>
+      <c r="H177" t="inlineStr">
         <is>
           <t>산마리노</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="I177" t="inlineStr">
         <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
+      <c r="J177" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -6603,17 +7136,20 @@
       <c r="F178" t="n">
         <v>622</v>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="G178" t="n">
+        <v>7976983</v>
+      </c>
+      <c r="H178" t="inlineStr">
         <is>
           <t>시에라리온</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="I178" t="inlineStr">
         <is>
           <t>SL</t>
         </is>
       </c>
-      <c r="I178" t="inlineStr">
+      <c r="J178" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6638,17 +7174,20 @@
       <c r="F179" t="n">
         <v>301</v>
       </c>
-      <c r="G179" t="inlineStr">
+      <c r="G179" t="n">
+        <v>16425864</v>
+      </c>
+      <c r="H179" t="inlineStr">
         <is>
           <t>차드</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="I179" t="inlineStr">
         <is>
           <t>TD</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr">
+      <c r="J179" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6673,17 +7212,20 @@
       <c r="F180" t="n">
         <v>128313</v>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="G180" t="n">
+        <v>33691</v>
+      </c>
+      <c r="H180" t="inlineStr">
         <is>
           <t>지브롤터</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="I180" t="inlineStr">
         <is>
           <t>GI</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr">
+      <c r="J180" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -6708,17 +7250,20 @@
       <c r="F181" t="n">
         <v>14076</v>
       </c>
-      <c r="G181" t="inlineStr">
+      <c r="G181" t="n">
+        <v>287375</v>
+      </c>
+      <c r="H181" t="inlineStr">
         <is>
           <t>바베이도스</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="I181" t="inlineStr">
         <is>
           <t>BB</t>
         </is>
       </c>
-      <c r="I181" t="inlineStr">
+      <c r="J181" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -6743,17 +7288,20 @@
       <c r="F182" t="n">
         <v>4499</v>
       </c>
-      <c r="G182" t="inlineStr">
+      <c r="G182" t="n">
+        <v>869601</v>
+      </c>
+      <c r="H182" t="inlineStr">
         <is>
           <t>코모로</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="I182" t="inlineStr">
         <is>
           <t>KM</t>
         </is>
       </c>
-      <c r="I182" t="inlineStr">
+      <c r="J182" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6778,17 +7326,20 @@
       <c r="F183" t="n">
         <v>1948</v>
       </c>
-      <c r="G183" t="inlineStr">
+      <c r="G183" t="n">
+        <v>1968001</v>
+      </c>
+      <c r="H183" t="inlineStr">
         <is>
           <t>기니비사우</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="I183" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr">
+      <c r="J183" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6813,17 +7364,20 @@
       <c r="F184" t="n">
         <v>615</v>
       </c>
-      <c r="G184" t="inlineStr">
+      <c r="G184" t="n">
+        <v>5057681</v>
+      </c>
+      <c r="H184" t="inlineStr">
         <is>
           <t>라이베리아</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
+      <c r="I184" t="inlineStr">
         <is>
           <t>LR</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr">
+      <c r="J184" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6831,7 +7385,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>3028</v>
+        <v>3030</v>
       </c>
       <c r="B185" t="n">
         <v>59</v>
@@ -6843,22 +7397,25 @@
         <v>0.019</v>
       </c>
       <c r="E185" t="n">
-        <v>0.977</v>
+        <v>0.976</v>
       </c>
       <c r="F185" t="n">
-        <v>79417</v>
-      </c>
-      <c r="G185" t="inlineStr">
+        <v>79469</v>
+      </c>
+      <c r="G185" t="n">
+        <v>38128</v>
+      </c>
+      <c r="H185" t="inlineStr">
         <is>
           <t>리히텐슈타인</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="I185" t="inlineStr">
         <is>
           <t>LI</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
+      <c r="J185" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -6883,17 +7440,20 @@
       <c r="F186" t="n">
         <v>565</v>
       </c>
-      <c r="G186" t="inlineStr">
+      <c r="G186" t="n">
+        <v>4822233</v>
+      </c>
+      <c r="H186" t="inlineStr">
         <is>
           <t>뉴질랜드</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="I186" t="inlineStr">
         <is>
           <t>NZ</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr">
+      <c r="J186" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
@@ -6918,13 +7478,16 @@
       <c r="F187" t="n">
         <v>60220</v>
       </c>
-      <c r="G187" t="inlineStr">
+      <c r="G187" t="n">
+        <v>42876</v>
+      </c>
+      <c r="H187" t="inlineStr">
         <is>
           <t>신트마르턴</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr">
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -6949,17 +7512,20 @@
       <c r="F188" t="n">
         <v>65083</v>
       </c>
-      <c r="G188" t="inlineStr">
+      <c r="G188" t="n">
+        <v>39242</v>
+      </c>
+      <c r="H188" t="inlineStr">
         <is>
           <t>모나코</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
+      <c r="I188" t="inlineStr">
         <is>
           <t>MC</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr">
+      <c r="J188" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -6984,17 +7550,20 @@
       <c r="F189" t="n">
         <v>40207</v>
       </c>
-      <c r="G189" t="inlineStr">
+      <c r="G189" t="n">
+        <v>62278</v>
+      </c>
+      <c r="H189" t="inlineStr">
         <is>
           <t>버뮤다</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
+      <c r="I189" t="inlineStr">
         <is>
           <t>BM</t>
         </is>
       </c>
-      <c r="I189" t="inlineStr">
+      <c r="J189" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -7019,17 +7588,20 @@
       <c r="F190" t="n">
         <v>62608</v>
       </c>
-      <c r="G190" t="inlineStr">
+      <c r="G190" t="n">
+        <v>38717</v>
+      </c>
+      <c r="H190" t="inlineStr">
         <is>
           <t>터크스 케이커스 제도</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
+      <c r="I190" t="inlineStr">
         <is>
           <t>TC</t>
         </is>
       </c>
-      <c r="I190" t="inlineStr">
+      <c r="J190" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -7054,17 +7626,20 @@
       <c r="F191" t="n">
         <v>10782</v>
       </c>
-      <c r="G191" t="inlineStr">
+      <c r="G191" t="n">
+        <v>219159</v>
+      </c>
+      <c r="H191" t="inlineStr">
         <is>
           <t>상투메 프린시페</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
+      <c r="I191" t="inlineStr">
         <is>
           <t>ST</t>
         </is>
       </c>
-      <c r="I191" t="inlineStr">
+      <c r="J191" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -7089,17 +7664,20 @@
       <c r="F192" t="n">
         <v>2532</v>
       </c>
-      <c r="G192" t="inlineStr">
+      <c r="G192" t="n">
+        <v>896445</v>
+      </c>
+      <c r="H192" t="inlineStr">
         <is>
           <t>피지</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="I192" t="inlineStr">
         <is>
           <t>FJ</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr">
+      <c r="J192" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
@@ -7124,17 +7702,20 @@
       <c r="F193" t="n">
         <v>19894</v>
       </c>
-      <c r="G193" t="inlineStr">
+      <c r="G193" t="n">
+        <v>110940</v>
+      </c>
+      <c r="H193" t="inlineStr">
         <is>
           <t>세인트빈센트 그레나딘</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
+      <c r="I193" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="I193" t="inlineStr">
+      <c r="J193" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -7159,13 +7740,16 @@
       <c r="F194" t="n">
         <v>55165</v>
       </c>
-      <c r="G194" t="inlineStr">
+      <c r="G194" t="n">
+        <v>38666</v>
+      </c>
+      <c r="H194" t="inlineStr">
         <is>
           <t>세인트마틴 섬</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr">
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -7173,34 +7757,37 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2067</v>
+        <v>2076</v>
       </c>
       <c r="B195" t="n">
         <v>3</v>
       </c>
       <c r="C195" t="n">
-        <v>1954</v>
+        <v>1960</v>
       </c>
       <c r="D195" t="n">
         <v>0.001</v>
       </c>
       <c r="E195" t="n">
-        <v>0.945</v>
+        <v>0.9440000000000001</v>
       </c>
       <c r="F195" t="n">
-        <v>284</v>
-      </c>
-      <c r="G195" t="inlineStr">
+        <v>285</v>
+      </c>
+      <c r="G195" t="n">
+        <v>7275560</v>
+      </c>
+      <c r="H195" t="inlineStr">
         <is>
           <t>라오스</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
+      <c r="I195" t="inlineStr">
         <is>
           <t>LA</t>
         </is>
       </c>
-      <c r="I195" t="inlineStr">
+      <c r="J195" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -7225,17 +7812,20 @@
       <c r="F196" t="n">
         <v>2544</v>
       </c>
-      <c r="G196" t="inlineStr">
+      <c r="G196" t="n">
+        <v>771608</v>
+      </c>
+      <c r="H196" t="inlineStr">
         <is>
           <t>부탄</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
+      <c r="I196" t="inlineStr">
         <is>
           <t>BT</t>
         </is>
       </c>
-      <c r="I196" t="inlineStr">
+      <c r="J196" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -7243,34 +7833,37 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1701</v>
+        <v>1779</v>
       </c>
       <c r="B197" t="n">
         <v>18</v>
       </c>
       <c r="C197" t="n">
-        <v>1265</v>
+        <v>1331</v>
       </c>
       <c r="D197" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="E197" t="n">
-        <v>0.7440000000000001</v>
+        <v>0.748</v>
       </c>
       <c r="F197" t="n">
-        <v>1338</v>
-      </c>
-      <c r="G197" t="inlineStr">
+        <v>1399</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1271768</v>
+      </c>
+      <c r="H197" t="inlineStr">
         <is>
           <t>모리셔스</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
+      <c r="I197" t="inlineStr">
         <is>
           <t>MU</t>
         </is>
       </c>
-      <c r="I197" t="inlineStr">
+      <c r="J197" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -7295,13 +7888,16 @@
       <c r="F198" t="n">
         <v>62312</v>
       </c>
-      <c r="G198" t="inlineStr">
+      <c r="G198" t="n">
+        <v>26223</v>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>카리브 네덜란드</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr">
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -7326,13 +7922,16 @@
       <c r="F199" t="n">
         <v>18828</v>
       </c>
-      <c r="G199" t="inlineStr">
+      <c r="G199" t="n">
+        <v>85033</v>
+      </c>
+      <c r="H199" t="inlineStr">
         <is>
           <t>맨섬</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -7357,17 +7956,20 @@
       <c r="F200" t="n">
         <v>12897</v>
       </c>
-      <c r="G200" t="inlineStr">
+      <c r="G200" t="n">
+        <v>97929</v>
+      </c>
+      <c r="H200" t="inlineStr">
         <is>
           <t>앤티가 바부다</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
+      <c r="I200" t="inlineStr">
         <is>
           <t>AG</t>
         </is>
       </c>
-      <c r="I200" t="inlineStr">
+      <c r="J200" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -7392,13 +7994,16 @@
       <c r="F201" t="n">
         <v>101752</v>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="G201" t="n">
+        <v>9877</v>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>생바르텔레미</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -7423,17 +8028,20 @@
       <c r="F202" t="n">
         <v>15738</v>
       </c>
-      <c r="G202" t="inlineStr">
+      <c r="G202" t="n">
+        <v>48863</v>
+      </c>
+      <c r="H202" t="inlineStr">
         <is>
           <t>페로 제도</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
+      <c r="I202" t="inlineStr">
         <is>
           <t>FO</t>
         </is>
       </c>
-      <c r="I202" t="inlineStr">
+      <c r="J202" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -7458,17 +8066,20 @@
       <c r="F203" t="n">
         <v>9266</v>
       </c>
-      <c r="G203" t="inlineStr">
+      <c r="G203" t="n">
+        <v>65722</v>
+      </c>
+      <c r="H203" t="inlineStr">
         <is>
           <t>케이맨 제도</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="I203" t="inlineStr">
         <is>
           <t>KY</t>
         </is>
       </c>
-      <c r="I203" t="inlineStr">
+      <c r="J203" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -7493,17 +8104,20 @@
       <c r="F204" t="n">
         <v>9</v>
       </c>
-      <c r="G204" t="inlineStr">
+      <c r="G204" t="n">
+        <v>59734218</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>탄자니아</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="I204" t="inlineStr">
         <is>
           <t>TZ</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr">
+      <c r="J204" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -7528,13 +8142,16 @@
       <c r="F205" t="n">
         <v>0</v>
       </c>
-      <c r="G205" t="inlineStr">
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>왈리스 퓌티나</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr">
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -7559,17 +8176,20 @@
       <c r="F206" t="n">
         <v>7087</v>
       </c>
-      <c r="G206" t="inlineStr">
+      <c r="G206" t="n">
+        <v>53199</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>세인트키츠 네비스</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
+      <c r="I206" t="inlineStr">
         <is>
           <t>KN</t>
         </is>
       </c>
-      <c r="I206" t="inlineStr">
+      <c r="J206" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -7594,17 +8214,20 @@
       <c r="F207" t="n">
         <v>585</v>
       </c>
-      <c r="G207" t="inlineStr">
+      <c r="G207" t="n">
+        <v>437479</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>브루나이</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
+      <c r="I207" t="inlineStr">
         <is>
           <t>BN</t>
         </is>
       </c>
-      <c r="I207" t="inlineStr">
+      <c r="J207" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -7629,17 +8252,20 @@
       <c r="F208" t="n">
         <v>8203</v>
       </c>
-      <c r="G208" t="inlineStr">
+      <c r="G208" t="n">
+        <v>30231</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>영국령 버진아일랜드</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
+      <c r="I208" t="inlineStr">
         <is>
           <t>VG</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr">
+      <c r="J208" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -7664,17 +8290,20 @@
       <c r="F209" t="n">
         <v>2653</v>
       </c>
-      <c r="G209" t="inlineStr">
+      <c r="G209" t="n">
+        <v>71986</v>
+      </c>
+      <c r="H209" t="inlineStr">
         <is>
           <t>도미니카 연방</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="I209" t="inlineStr">
         <is>
           <t>DM</t>
         </is>
       </c>
-      <c r="I209" t="inlineStr">
+      <c r="J209" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -7699,17 +8328,20 @@
       <c r="F210" t="n">
         <v>1431</v>
       </c>
-      <c r="G210" t="inlineStr">
+      <c r="G210" t="n">
+        <v>112523</v>
+      </c>
+      <c r="H210" t="inlineStr">
         <is>
           <t>그레나다</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
+      <c r="I210" t="inlineStr">
         <is>
           <t>GD</t>
         </is>
       </c>
-      <c r="I210" t="inlineStr">
+      <c r="J210" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -7734,13 +8366,16 @@
       <c r="F211" t="n">
         <v>452</v>
       </c>
-      <c r="G211" t="inlineStr">
+      <c r="G211" t="n">
+        <v>285498</v>
+      </c>
+      <c r="H211" t="inlineStr">
         <is>
           <t>뉴칼레도니아</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr">
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -7765,17 +8400,20 @@
       <c r="F212" t="n">
         <v>7265</v>
       </c>
-      <c r="G212" t="inlineStr">
+      <c r="G212" t="n">
+        <v>15003</v>
+      </c>
+      <c r="H212" t="inlineStr">
         <is>
           <t>앵귈라</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
+      <c r="I212" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="I212" t="inlineStr">
+      <c r="J212" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -7800,17 +8438,20 @@
       <c r="F213" t="n">
         <v>18103</v>
       </c>
-      <c r="G213" t="inlineStr">
+      <c r="G213" t="n">
+        <v>3480</v>
+      </c>
+      <c r="H213" t="inlineStr">
         <is>
           <t>포클랜드 제도</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
+      <c r="I213" t="inlineStr">
         <is>
           <t>FK</t>
         </is>
       </c>
-      <c r="I213" t="inlineStr">
+      <c r="J213" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
@@ -7835,17 +8476,20 @@
       <c r="F214" t="n">
         <v>82</v>
       </c>
-      <c r="G214" t="inlineStr">
+      <c r="G214" t="n">
+        <v>649335</v>
+      </c>
+      <c r="H214" t="inlineStr">
         <is>
           <t>마카오</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="I214" t="inlineStr">
         <is>
           <t>MO</t>
         </is>
       </c>
-      <c r="I214" t="inlineStr">
+      <c r="J214" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
@@ -7870,17 +8514,20 @@
       <c r="F215" t="n">
         <v>881</v>
       </c>
-      <c r="G215" t="inlineStr">
+      <c r="G215" t="n">
+        <v>56770</v>
+      </c>
+      <c r="H215" t="inlineStr">
         <is>
           <t>그린란드</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
+      <c r="I215" t="inlineStr">
         <is>
           <t>GL</t>
         </is>
       </c>
-      <c r="I215" t="inlineStr">
+      <c r="J215" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -7905,17 +8552,20 @@
       <c r="F216" t="n">
         <v>33708</v>
       </c>
-      <c r="G216" t="inlineStr">
+      <c r="G216" t="n">
+        <v>801</v>
+      </c>
+      <c r="H216" t="inlineStr">
         <is>
           <t>바티칸 시국</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
+      <c r="I216" t="inlineStr">
         <is>
           <t>VA</t>
         </is>
       </c>
-      <c r="I216" t="inlineStr">
+      <c r="J216" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
@@ -7940,17 +8590,20 @@
       <c r="F217" t="n">
         <v>4487</v>
       </c>
-      <c r="G217" t="inlineStr">
+      <c r="G217" t="n">
+        <v>5794</v>
+      </c>
+      <c r="H217" t="inlineStr">
         <is>
           <t>생피에르 미클롱</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="I217" t="inlineStr">
         <is>
           <t>PM</t>
         </is>
       </c>
-      <c r="I217" t="inlineStr">
+      <c r="J217" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -7975,17 +8628,20 @@
       <c r="F218" t="n">
         <v>4006</v>
       </c>
-      <c r="G218" t="inlineStr">
+      <c r="G218" t="n">
+        <v>4992</v>
+      </c>
+      <c r="H218" t="inlineStr">
         <is>
           <t>몬트세랫</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="I218" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="I218" t="inlineStr">
+      <c r="J218" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
@@ -8010,17 +8666,20 @@
       <c r="F219" t="n">
         <v>29</v>
       </c>
-      <c r="G219" t="inlineStr">
+      <c r="G219" t="n">
+        <v>686884</v>
+      </c>
+      <c r="H219" t="inlineStr">
         <is>
           <t>솔로몬 제도</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
+      <c r="I219" t="inlineStr">
         <is>
           <t>SB</t>
         </is>
       </c>
-      <c r="I219" t="inlineStr">
+      <c r="J219" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
@@ -8045,17 +8704,20 @@
       <c r="F220" t="n">
         <v>17</v>
       </c>
-      <c r="G220" t="inlineStr">
+      <c r="G220" t="n">
+        <v>597339</v>
+      </c>
+      <c r="H220" t="inlineStr">
         <is>
           <t>서사하라</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="I220" t="inlineStr">
         <is>
           <t>EH</t>
         </is>
       </c>
-      <c r="I220" t="inlineStr">
+      <c r="J220" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
@@ -8063,36 +8725,35 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B221" t="n">
+        <v>2</v>
+      </c>
+      <c r="C221" t="n">
+        <v>7</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="F221" t="n">
         <v>0</v>
       </c>
-      <c r="C221" t="n">
-        <v>4</v>
-      </c>
-      <c r="D221" t="n">
+      <c r="G221" t="n">
         <v>0</v>
       </c>
-      <c r="E221" t="n">
-        <v>1</v>
-      </c>
-      <c r="F221" t="n">
-        <v>68</v>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>마셜 제도</t>
-        </is>
-      </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>MH</t>
-        </is>
-      </c>
-      <c r="I221" t="inlineStr">
-        <is>
-          <t>Oceania</t>
+          <t>잔담(크루즈</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Africa</t>
         </is>
       </c>
     </row>
@@ -8101,31 +8762,34 @@
         <v>4</v>
       </c>
       <c r="B222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
         <v>1</v>
       </c>
-      <c r="C222" t="n">
-        <v>3</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0.75</v>
-      </c>
       <c r="F222" t="n">
-        <v>13</v>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>바누아투</t>
-        </is>
+        <v>68</v>
+      </c>
+      <c r="G222" t="n">
+        <v>59190</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>마셜 제도</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
@@ -8133,34 +8797,37 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" t="n">
         <v>3</v>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E223" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F223" t="n">
-        <v>15</v>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>사모아</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="G223" t="n">
+        <v>307145</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>WS</t>
+          <t>바누아투</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
@@ -8168,13 +8835,13 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B224" t="n">
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -8183,33 +8850,36 @@
         <v>1</v>
       </c>
       <c r="F224" t="n">
-        <v>329</v>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>세인트헬레나</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="G224" t="n">
+        <v>198414</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>SH</t>
+          <t>사모아</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>WS</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Oceania</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B225" t="n">
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -8218,15 +8888,56 @@
         <v>1</v>
       </c>
       <c r="F225" t="n">
+        <v>329</v>
+      </c>
+      <c r="G225" t="n">
+        <v>6077</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>세인트헬레나</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>SH</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" t="n">
         <v>9</v>
       </c>
-      <c r="G225" t="inlineStr">
+      <c r="G226" t="n">
+        <v>115023</v>
+      </c>
+      <c r="H226" t="inlineStr">
         <is>
           <t>미크로네시아</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr">
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
